--- a/Apple.xlsx
+++ b/Apple.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\OneDrive\Área de Trabalho\Insper\2º SEMESTRE\CIÊNCIA DOS DADOS\Projeto 1\Arquivos bb\projeto1data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="11_57AEF00966831FE8EC869A7057F8FC45E12FF8D4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51DE564B-6FF6-410F-9319-01F9A5737020}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04444B85-04CE-4B7A-AFA8-118A02817C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2578,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3964,103 +3964,130 @@
       <c r="A172" t="s">
         <v>171</v>
       </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4620,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202:B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5834,293 +5861,449 @@
       <c r="A150" t="s">
         <v>450</v>
       </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>451</v>
       </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>452</v>
       </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>453</v>
       </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>454</v>
       </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>455</v>
       </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>456</v>
       </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>457</v>
       </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>458</v>
       </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>459</v>
       </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>508</v>
       </c>

--- a/Apple.xlsx
+++ b/Apple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04444B85-04CE-4B7A-AFA8-118A02817C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4ED673-29C1-4010-B8BA-335AED574C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2578,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4036,605 +4036,976 @@
       <c r="A181" t="s">
         <v>180</v>
       </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <f>COUNTIF(B2:B301,1)</f>
+        <v>165</v>
+      </c>
+      <c r="E219">
+        <f>COUNTIF(B2:B301,0)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4647,8 +5018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202:B207"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5769,12 +6140,12 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <f>COUNTIF(B1:B149,1)</f>
-        <v>74</v>
+        <f>COUNTIF(B2:B201,1)</f>
+        <v>104</v>
       </c>
       <c r="F139">
-        <f>COUNTIF(B1:B149,0)</f>
-        <v>74</v>
+        <f>COUNTIF(B2:B201,0)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">

--- a/Apple.xlsx
+++ b/Apple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Documents\Insper\2oSemestre\Ciência dos dados\Projeto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4ED673-29C1-4010-B8BA-335AED574C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7120B8E3-574C-48C2-A50B-D37319D1FA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="503">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1732,439 +1732,6 @@
   </si>
   <si>
     <t>cada keynote da apple q passa eu quero mais um apple watch</t>
-  </si>
-  <si>
-    <t>@felipribeiro12 @spotifybr com esse plano do apple one, vai ficar melhor ainda!</t>
-  </si>
-  <si>
-    <t>resumo em 5 minutos do evento da apple 9.15 #appleevent - youtube https://t.co/ncpnmbjjro</t>
-  </si>
-  <si>
-    <t>@ofutebolnews benfica jorge jesus paok #appleevent champions #juntossomos ios 14 pedrinho #abramasescolas cebolinha malikinha
-#ios14 #apple
- #blueberryeyesmvoutnow cocielo grécia #futebolnaespn iphone 12 apple watch eles voltaram cavani 2
-https://t.co/ulghjbrmmo</t>
-  </si>
-  <si>
-    <t>@cansadahhhhh a apple morreu junto com jobs, amiga... eh sobre isso, fico mto triste mas cada dia só vejo mais evidências no iphone principalmente</t>
-  </si>
-  <si>
-    <t>apple watch se: a versão “low cost” do relógio inteligente da apple https://t.co/rsg87eehlr https://t.co/ixyf8ju4tj</t>
-  </si>
-  <si>
-    <t>apple tenha piedade de nós</t>
-  </si>
-  <si>
-    <t>@agaydasbolsas kkkkkkk a apple realmente perdeu a noção de valor dos aparelhos o pior é que isso influencia as outras marcas a pedirem a mesma margem de preço, ainda não tou acreditando no novo apple watch no valor de 10000 dilmas</t>
-  </si>
-  <si>
-    <t>novo ipad air tem design do ipad pro, usb-c e chip apple a14 | gadgets | tecnoblog https://t.co/txmwngsf9y</t>
-  </si>
-  <si>
-    <t>para mais vídeos engraçados, acesse o link abaixo e baixe o app 😊
-https://t.co/gnxlbz6m0z</t>
-  </si>
-  <si>
-    <t>eu vendo todos os novos lançamentos da apple sendo q eu n tenho dinheiro pra comprar🤡</t>
-  </si>
-  <si>
-    <t>sorteio apple watch
-regras: 
--curta esse tweet
--mande print vendo feel good do fromis_9 que lança amanhã 
-boa sorte :)
-#appleevent
- https://t.co/vgnt3pzgrw</t>
-  </si>
-  <si>
-    <t>será que nas instruções de uso do apple watch tá escrito que só funciona se tirar foto aparecendo ele?</t>
-  </si>
-  <si>
-    <t>procuro amizade sincera pra dividir apple one family</t>
-  </si>
-  <si>
-    <t>quanto tempo pra apple lançar o próprio plano de saúde? fica aí a sugestão</t>
-  </si>
-  <si>
-    <t>microsoft mandando a real para a apple, falando para usuários de iphone usarem android pra jogarem no xcloud 👀 https://t.co/86aiy9uw5v</t>
-  </si>
-  <si>
-    <t>rt @swiftieintdark: stream party começando em 1 hora e meia!
-vamos exaltar betty, ressuscitar cardigan, tacar ainda mais stream em exile e…</t>
-  </si>
-  <si>
-    <t>e a essa @apple com o novo #applewatchseries6 nu, que maravilha meu deus! #appleevent</t>
-  </si>
-  <si>
-    <t>eu acho que apple não lançou o iphone 12, porque está tendo a pré venda do galaxy note 20 em alguns lugares ainda, eles nunca lançam produtos juntos..</t>
-  </si>
-  <si>
-    <t>@ry0asuka__ foi pra apple</t>
-  </si>
-  <si>
-    <t>@arctichosen a apple anunciou o iphone 12, err só eu acho https://t.co/udscu6dej7</t>
-  </si>
-  <si>
-    <t>a vida de um apple fã br não é fácil. assisti o evento todo babando e agora tou desejando o novo ipad air verde.</t>
-  </si>
-  <si>
-    <t>@kanyesatoko @gabrielwars sim sim, é verdade. mass no  caso da apple, elas são rivais de longa data.</t>
-  </si>
-  <si>
-    <t>rt @lisanascim: isso mesmo apple, lança mais apple watch pra que o que eu quero fique mais barato e quem sabe um dia eu consiga</t>
-  </si>
-  <si>
-    <t>pela amor de deus essa aqui....  https://t.co/tywnctbpeq</t>
-  </si>
-  <si>
-    <t>rt @taymaliks: começou!!!! 
-usem a tag "stream betty" e escutem muito a faixa
-spotify: https://t.co/6ac3mxupqp
-apple: https://t.co/ht2dfw…</t>
-  </si>
-  <si>
-    <t>o melhor investimento no br é produto da apple, tu compra, usa e revende 50% mais caro.</t>
-  </si>
-  <si>
-    <t>rt @jfsnn: não tem como ligar pro suporte da apple e não ficar maravilhado com a excelência do atendimento deles 🤩😍</t>
-  </si>
-  <si>
-    <t>rt @henriquelcsousa: o evento da apple desapontou-me</t>
-  </si>
-  <si>
-    <t>como fiel cadelinha da apple, amei isso https://t.co/dtk0mp4azo</t>
-  </si>
-  <si>
-    <t>@ceciliasoares__ hoje teve o evento mas não foi anunciado iphone. só apple watch e ipad</t>
-  </si>
-  <si>
-    <t>🚨🚨🚨
-stream na playlist e fale seu top 3 álbuns da loirinha
-stream betty
-spotify: https://t.co/h0xo3v7v3y
-apple: https://t.co/grvykdvziq
-youtube: https://t.co/zl62cyy2aa</t>
-  </si>
-  <si>
-    <t>sabe o que eu conclui com o anúncio dos novos produtos da apple? que eu ainda não vou conseguir comprar nem os antigos. bjs de luz</t>
-  </si>
-  <si>
-    <t>rt @macmagazine: apple watch passará a ser vendido sem adaptador de tomada, prevendo o futuro dos iphones » https://t.co/y0dxx2vvno (por @b…</t>
-  </si>
-  <si>
-    <t>rt @agaydasbolsas: apple é a grife da tecnologia né....... não da pra dizer que os produtos são ruins, mas o preço é pelo nome</t>
-  </si>
-  <si>
-    <t>rt @eixoxyz: como eu já havia dito, hoje o iphone 12 não foi anunciado.
-os quatro novos smartphones da apple serão revelados oficialmente…</t>
-  </si>
-  <si>
-    <t>eu olhando essa atualização da apple sendo que já existia as mesmas coisas em smartphones de 5 anos atrás https://t.co/stuqg86k63</t>
-  </si>
-  <si>
-    <t>um dos testamentos da lenda https://t.co/l84jkklpyh</t>
-  </si>
-  <si>
-    <t>novo apple watch series 6 é anunciado, com oxímetro e novas cores https://t.co/gg0yvreuv9 via @blogdoiphone</t>
-  </si>
-  <si>
-    <t>agora você já pode contrair covid e acompanhar em seu apple watch seus últimos instantes de vida por baixa saturação https://t.co/vzd3bbzq87</t>
-  </si>
-  <si>
-    <t>@sunoresearch fosse a apple não compraria briga com essa molecada não.</t>
-  </si>
-  <si>
-    <t>eu não duvido que a apple tá caminhando pra daqui um tempo vc pague uma assinatura e tenha no pack um iphone, ipad, e todos outros serviços.
-#appleevent</t>
-  </si>
-  <si>
-    <t>rt @rreinaldoliv: até agora tô procurando o “barato” do apple watch se 😂#appleevent https://t.co/pwx2cqcv07</t>
-  </si>
-  <si>
-    <t>vai tomar no cy apple</t>
-  </si>
-  <si>
-    <t>rt @smashmario: os upgrades do apple watch são tão pequenos, que quando o 5 começou a ser vendido, eles tiveram que tirar o 4 de produção p…</t>
-  </si>
-  <si>
-    <t>@lighthatala o da apple https://t.co/foaeikothw</t>
-  </si>
-  <si>
-    <t>rt @tarsila_dsantos: eu esperando a apple mostrar os novos iphones 
-#appleevent https://t.co/njxobwdczt</t>
-  </si>
-  <si>
-    <t>apple anunciou o ios 14. nem sei o que isso significa, mas to feliz 🙈🙌🏼</t>
-  </si>
-  <si>
-    <t>a apple finalmente lançou o iphone 12 é?</t>
-  </si>
-  <si>
-    <t>eu ainda acho que o apple watch deveria ser uma pouco mais delicado. o design não me agrada muito.</t>
-  </si>
-  <si>
-    <t>mds a dificuldade de restaurar o telefone e vamos de ligar pro sac da apple amanha dnv</t>
-  </si>
-  <si>
-    <t>bitch im collapseddksksksksk https://t.co/rcykcnuncg</t>
-  </si>
-  <si>
-    <t>apple said: foda-se coloca lá praqueles fudido logo ninguém vai comprar mesmo https://t.co/4mappfub5r</t>
-  </si>
-  <si>
-    <t>oh man o quê
-vão me dizer que one size fits all ou então vão vender uma extremamente pequena e tamanhos maiores são acessórios de 50€+?
-apple sendo apple 😌 https://t.co/bu45hpbnow</t>
-  </si>
-  <si>
-    <t>apple podia lançar esse iphone 12</t>
-  </si>
-  <si>
-    <t>@leofilip95 @joaotduarte achas que és só tu conheces da apple? o joão domina!</t>
-  </si>
-  <si>
-    <t>rt @manualusuariobr: a apple anunciou o apple one, pacote que reúne os serviços da empresa. no brasil, são dois planos, individual (r$ 26,5…</t>
-  </si>
-  <si>
-    <t>rt @avamaxbr: o foco é ouvir o álbum durante todo o dia através do 'spotify' ou 'apple music', mas com mais empenho a partir do horário pro…</t>
-  </si>
-  <si>
-    <t>rt @jungwheeinbr: 📝| #info 15.09.20 — "miss u", colaboração do jude milez com a wheein chegou ao spotify e apple music. 
-não deixem de dar…</t>
-  </si>
-  <si>
-    <t>na real aqui a apple já mata netflix e spotify numa tacada só. que a guerra comece!</t>
-  </si>
-  <si>
-    <t>a apple n lançou o iphone 12 :0</t>
-  </si>
-  <si>
-    <t>o apple watch se chegou mesmo na altura ideal</t>
-  </si>
-  <si>
-    <t>machuca tvxq eu aguento https://t.co/ferasb8gy5</t>
-  </si>
-  <si>
-    <t>😯 sensor médico no apple watch series 6 caralho tão try hard hein fi</t>
-  </si>
-  <si>
-    <t>rt @naresenhapod: ⚠️ se liga, malandro! ⚠️
-anota aí, põe no ⏰, amanhã ao meio dia tem um resenhando insano com o humorista colorado @ogiol…</t>
-  </si>
-  <si>
-    <t>começou!!!! 
-usem a tag "stream betty" e escutem muito a faixa
-spotify: https://t.co/6ac3mxupqp
-apple: https://t.co/ht2dfwlwrk
-youtube: https://t.co/ks9jq0qj3r
-stream betty https://t.co/ocioradadd</t>
-  </si>
-  <si>
-    <t>eu nem sou fã da apple mas to ansioso pra instalar o ios 14</t>
-  </si>
-  <si>
-    <t>quando a microsoft anunciou o #onemicrosoft : 🤪🤪🤣 mds que lixo que burrice
-quando a apple anuncia a oneapple: 😝👍🏻❤️💋😱🤩😍 mds que perfeição. como ninguém pensou nisso https://t.co/mlbetzmgie</t>
-  </si>
-  <si>
-    <t>apple juice o caralho eu quero leite na cara #asklimelight</t>
-  </si>
-  <si>
-    <t>⚠️ se liga, malandro! ⚠️
-anota aí, põe no ⏰, amanhã ao meio dia tem um resenhando insano com o humorista colorado @ogiolisboa!!! 🔥
-estamos disponíveis no spotify, apple podcasts, deezer, castbox, radiopublic e stitcher! 🎧✅ https://t.co/3oo0ljczch</t>
-  </si>
-  <si>
-    <t>ainda bem que não lançaram o iphone 12, só o novo apple watch custa 10k</t>
-  </si>
-  <si>
-    <t>@apple_ascent @aneklein_ mano tu é gata p crl e todo mundo gato te segue incrível</t>
-  </si>
-  <si>
-    <t>apple é a grife da tecnologia né....... não da pra dizer que os produtos são ruins, mas o preço é pelo nome</t>
-  </si>
-  <si>
-    <t>se você utiliza alguma rede social precisa assistir este documentário. é um alerta de utilidade pública.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-.
-#netflix #netflixbrasil #facebook #instagram #internetofthings #tecnologia #technology #applevent #apple #security https://t.co/2bhvt4ijej</t>
-  </si>
-  <si>
-    <t>@jsann05 @jodneto a senhora milita ? pensei que só ficasse postando coisas da apple https://t.co/0ayjbzbcx2</t>
-  </si>
-  <si>
-    <t>é a cornaaaa!
-stream betty https://t.co/cbdi1bshbp</t>
-  </si>
-  <si>
-    <t>rt @g1: apple anuncia apple watch com monitor de oxigênio https://t.co/w17r7fpxwb #g1 https://t.co/v3g6wgnh4m</t>
-  </si>
-  <si>
-    <t>além dos novos ipads e do apple watch series 6, a @apple apresentou o “apple one”, pacote de serviços mais em conta do que assinar cada um desses serviços individualmente. #appleevent</t>
-  </si>
-  <si>
-    <t>rt @aripinkbot: oi gente resumo do #appleevent 
--apple watch series 6-a partir de $399
--apple watch se-a partir de $279 
--apple fitness+ -…</t>
-  </si>
-  <si>
-    <t>@mard7bum kkkkkkkkkkkkk você tem que conhecer quando eles fazem algo só pra enrolar e apresentação de margem pra investidor tipo a apple</t>
-  </si>
-  <si>
-    <t>chegou o apple watch series 6, a evolução do melhor smartwatch do mercado https://t.co/lieoes39oc https://t.co/gjtpb5juyk</t>
-  </si>
-  <si>
-    <t>obrigada apple por fazer eu colocar a minha senha pra pagar um joguinho de 189 reais sendo q eu tinha saído do jogo pra não pagar🥳🥳🥳👏🏻👏🏻</t>
-  </si>
-  <si>
-    <t>@willianmax não tenho seu número ou apple id 🤧</t>
-  </si>
-  <si>
-    <t>@luthorarts poxa dona @apple quebra esse galho https://t.co/zzqud6bijj</t>
-  </si>
-  <si>
-    <t>esperava o iphone 12 e ganhou versões do apple watch.</t>
-  </si>
-  <si>
-    <t>venho comunicar a todos que eu sou fácil de encontrar, é isso galera bjos estrelados https://t.co/grprzmk70s</t>
-  </si>
-  <si>
-    <t>melhor coisa que a apple fez nos últimos anos foi esse ios 14</t>
-  </si>
-  <si>
-    <t>essa atualização apple vai ficar foda ++++++</t>
-  </si>
-  <si>
-    <t>apple lançou o que hoje?</t>
-  </si>
-  <si>
-    <t>ainda vale a pena o apple watch 3? ta metade do preço do 5 kkkkkkk</t>
-  </si>
-  <si>
-    <t>@eulorex aaaaaaaa😍😍😍
-benfica jorge jesus paok #appleevent champions #juntossomos ios 14 pedrinho #abramasescolas cebolinha malikinha #blueberryeyesmvoutnow cocielo grécia #futebolnaespn iphone 12 apple watch eles voltaram cavani 2
-https://t.co/3dmfugt0gt</t>
-  </si>
-  <si>
-    <t>o problema é que tem gente trouxa (eu) que tá pensando em juntar dinheiro para comprar o apple watch.</t>
-  </si>
-  <si>
-    <t>@henriquee667 @kauh_souza19 original q eu falo arrombado, oq eu tenho aq nem é da apple paralelo cblz kkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>rt @rafaelbboa: apliquei para o apple card e já recebi uns 300 dólares de “coupon” pra gastar em cafeterias, lojas de departamentos e etc.…</t>
-  </si>
-  <si>
-    <t>rt @balena_gustavo: é incrivel a capacidade que os vídeos dos produtos da apple têm de fazer com que vc queira comprar absolutamente tudo</t>
-  </si>
-  <si>
-    <t>queria mto ter um apple watch mas me falta dinheiro e enxergar a real utilidade de ter um relógio desse</t>
-  </si>
-  <si>
-    <t>achei louvável o novo ipad air ter basicamente tudo que o ipad pro tem. não é capado, som dos dois lados, touch id no botão liga/desliga ao invés do face id, apple pencil que carrega na lateral...muito bom.</t>
-  </si>
-  <si>
-    <t>ios 14 estará disponível nesta quarta, anunciou a apple em evento realizado hoje. uso a versão beta há algumas semanas e tudo flui bem no sistema
-os widgets na home são mais legais do que parecem e, a lista de aplicativos, um alívio
-iphones a partir do 6s recebem a atualização https://t.co/wnn3yfbyh4</t>
-  </si>
-  <si>
-    <t>rt @benoiswift: stream party começando em vinte minutos!!
-vamos exaltar betty, ressuscitar cardigan, tacar ainda mais stream em exile e faz…</t>
-  </si>
-  <si>
-    <t>apple one reúne assinaturas do apple music, tv+ e icloud | negócios | tecnoblog https://t.co/ktjvto1lnp</t>
-  </si>
-  <si>
-    <t>o foda é que o problema já começa em: quem compra coisa da apple gente meu deus https://t.co/ruetmd5xgs</t>
-  </si>
-  <si>
-    <t>@da_cu_nha as coisas autorais de cada plataforma já são restritas aos seus servidores né? (apple, amazon ou netflix). ao decorrer do tempo isso deve se fortificar. acho impossível a gente só ter um tipo de assinatura, mas a competitividade é sempre boa pra gente por causa dos preços rs</t>
-  </si>
-  <si>
-    <t>eu tenho certeza que os sistemas da apple acham que a minha conta do apple music é um robô</t>
-  </si>
-  <si>
-    <t>se a dona apple vê minhas conversas com a @luthorarts ela dá um iphone pra gente só por pena</t>
-  </si>
-  <si>
-    <t>@gifontee mancada da apple kkk</t>
-  </si>
-  <si>
-    <t>rt @canalkatyperry: tem a versão com ”tucked” também, pode escolher @apple! 🍭🥦
-https://t.co/cwlhkwltvd</t>
-  </si>
-  <si>
-    <t>benfica jorge jesus paok #appleevent champions #juntossomos ios 14 pedrinho #abramasescolas cebolinha malikinha
-#ios14 #apple
- #blueberryeyesmvoutnow cocielo grécia #futebolnaespn iphone 12 apple watch eles voltaram cavani 2
-https://t.co/k7ye5uyja5</t>
-  </si>
-  <si>
-    <t>hello friends, aguém sabe de uma assistência técnica boa da apple em bauru?</t>
-  </si>
-  <si>
-    <t>apple aposta em pacotes de assinatura com tv, música, notícias e fitness https://t.co/9tq5tow6pk</t>
-  </si>
-  <si>
-    <t>rt @elo_got7: [#tutorial] aaa popularity award
-baixe o starpoll e acumule pontos antes do início da votação! você pode ganhar pontos assis…</t>
-  </si>
-  <si>
-    <t>é engraçado... as pessoas elogiam a apple por atualizar aparelhos antigos. mas as mesmas pessoas sabem que esses mesmos aparelhos vão ficar uma carroça.
-enfim, a ignorância https://t.co/wcbc3iyspu</t>
-  </si>
-  <si>
-    <t>@_eignacio certeza? acho q da sim
-https://t.co/pmk18cwezr</t>
-  </si>
-  <si>
-    <t>@n4strid @ocaosblues se inscreve aqui https://t.co/bfglruyj9r</t>
-  </si>
-  <si>
-    <t>assistência da apple é maravilhosa pqp</t>
-  </si>
-  <si>
-    <t>gargalhando que o apple watch mais baratinho é metade do preço do meu pc</t>
-  </si>
-  <si>
-    <t>a apple apresenta o a14 bionic, o chip mais avançado da apple https://t.co/egw7msezhh https://t.co/5pb6dydojh</t>
-  </si>
-  <si>
-    <t>@cagethechaos eu uso o spotify, to pensando em ir pro apple music, mas sei lá</t>
-  </si>
-  <si>
-    <t>se tem uma coisa que ngm pode negar, é que a apple sabe fazer comerciais matadores.
-introducing apple watch series 6 — it already does that https://t.co/ywwvk0ccqw via @youtube</t>
-  </si>
-  <si>
-    <t>iphone 12 só deve ser anunciado em outubro - https://t.co/tgayw3ysh1</t>
-  </si>
-  <si>
-    <t>vamos exaltar betty, ressuscitar cardigan, tacar ainda mais stream em exile e fazer the 1 alcançar 100 milhões de streams! 
-stream betty
-spotify: https://t.co/xvm3molfha
-apple: https://t.co/n1xfvrjco3
-youtube: https://t.co/m2vzyfwls5 https://t.co/hzefpevmph</t>
-  </si>
-  <si>
-    <t>"por uma questão ambiental, vamos tirar a fonte de alimentação" ah apple, me poupe vai! estão fazendo todo mundo de otários e quando chegar o iphone 12 farão a mesma coisa, colocando talvez a fonte somente nos modelos pro... me poupem https://t.co/gpeuasbwno</t>
-  </si>
-  <si>
-    <t>rt @itspedrito: o meu iphone após a apple lança um novo modelo e o meu atualizar #appleevent https://t.co/bdpxsotzfp</t>
-  </si>
-  <si>
-    <t>@vivobr @apple @vivobr eu só quero fazer uma portabilidade, eu quero te dar dinheiro e você não aceita</t>
   </si>
   <si>
     <t>Relevância</t>
@@ -2578,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2593,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>624</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4256,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4264,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4272,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4280,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4288,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4296,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4304,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4312,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4320,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4328,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4336,23 +3903,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
-      <c r="D219">
-        <f>COUNTIF(B2:B301,1)</f>
-        <v>165</v>
-      </c>
-      <c r="E219">
-        <f>COUNTIF(B2:B301,0)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4360,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4368,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -4376,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4384,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -5016,10 +4575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5033,7 +4592,7 @@
         <v>301</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>624</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6052,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>429</v>
       </c>
@@ -6060,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -6068,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -6076,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -6084,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>433</v>
       </c>
@@ -6092,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>434</v>
       </c>
@@ -6100,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>435</v>
       </c>
@@ -6108,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>436</v>
       </c>
@@ -6116,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -6124,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>438</v>
       </c>
@@ -6132,23 +5691,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>439</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-      <c r="E139">
-        <f>COUNTIF(B2:B201,1)</f>
-        <v>104</v>
-      </c>
-      <c r="F139">
-        <f>COUNTIF(B2:B201,0)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>440</v>
       </c>
@@ -6156,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>441</v>
       </c>
@@ -6164,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>442</v>
       </c>
@@ -6172,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>443</v>
       </c>
@@ -6180,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>444</v>
       </c>
@@ -6642,616 +6193,6 @@
       </c>
       <c r="B201">
         <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/Apple.xlsx
+++ b/Apple.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Documents\Insper\2oSemestre\Ciência dos dados\Projeto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\OneDrive\Área de Trabalho\Insper\2º SEMESTRE\CIÊNCIA DOS DADOS\Projeto 1\Arquivos bb\projeto1data\projeto1data-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7120B8E3-574C-48C2-A50B-D37319D1FA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7120B8E3-574C-48C2-A50B-D37319D1FA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C260E613-B31E-48AA-98C5-77DA903182D7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="2840" windowWidth="13520" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1734,7 +1734,7 @@
     <t>cada keynote da apple q passa eu quero mais um apple watch</t>
   </si>
   <si>
-    <t>Relevância</t>
+    <t>Relevancia</t>
   </si>
 </sst>
 </file>
@@ -2145,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4577,8 +4577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
